--- a/Input_File_Test.xlsx
+++ b/Input_File_Test.xlsx
@@ -1,22 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Charles\Documents\School\Spring_2018\NE 155\Final_Project\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{DF007FE5-D0B6-4914-BFFD-6C5497FE470B}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="28125"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20430" windowHeight="8775" xr2:uid="{9A2497DA-AD0A-4372-944F-DDEB4FBC22D6}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20440" windowHeight="8780"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
@@ -25,7 +22,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -117,7 +114,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -169,7 +166,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -363,26 +360,26 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B18880F2-6C4D-4047-A7EA-29876EFA056E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AB28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="N14" sqref="N14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="28" width="3.28515625" customWidth="1"/>
+    <col min="1" max="28" width="3.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:28" ht="12" customHeight="1">
       <c r="A1">
         <v>0</v>
       </c>
@@ -468,7 +465,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:28">
       <c r="A2">
         <v>0</v>
       </c>
@@ -554,7 +551,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:28">
       <c r="A3">
         <v>0</v>
       </c>
@@ -640,7 +637,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:28">
       <c r="A4">
         <v>0</v>
       </c>
@@ -726,7 +723,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:28">
       <c r="A5">
         <v>0</v>
       </c>
@@ -812,7 +809,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:28">
       <c r="A6">
         <v>0</v>
       </c>
@@ -898,7 +895,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:28">
       <c r="A7">
         <v>0</v>
       </c>
@@ -984,7 +981,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:28">
       <c r="A8">
         <v>0</v>
       </c>
@@ -1070,7 +1067,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:28">
       <c r="A9">
         <v>0</v>
       </c>
@@ -1156,7 +1153,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:28">
       <c r="A10">
         <v>0</v>
       </c>
@@ -1242,7 +1239,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:28">
       <c r="A11">
         <v>0</v>
       </c>
@@ -1283,13 +1280,13 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="O11">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="P11">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="Q11">
         <v>0</v>
@@ -1328,7 +1325,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:28">
       <c r="A12">
         <v>0</v>
       </c>
@@ -1366,19 +1363,19 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="N12">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="O12">
-        <v>235</v>
+        <v>235.9</v>
       </c>
       <c r="P12">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="Q12">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="R12">
         <v>0</v>
@@ -1414,7 +1411,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:28">
       <c r="A13">
         <v>0</v>
       </c>
@@ -1452,19 +1449,19 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="N13">
-        <v>235</v>
+        <v>235.9</v>
       </c>
       <c r="O13">
-        <v>235</v>
+        <v>235.9</v>
       </c>
       <c r="P13">
-        <v>235</v>
+        <v>235.9</v>
       </c>
       <c r="Q13">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="R13">
         <v>0</v>
@@ -1500,7 +1497,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:28">
       <c r="A14">
         <v>0</v>
       </c>
@@ -1538,19 +1535,19 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="N14">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="O14">
-        <v>235</v>
+        <v>235.9</v>
       </c>
       <c r="P14">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="Q14">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="R14">
         <v>0</v>
@@ -1586,7 +1583,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:28">
       <c r="A15">
         <v>0</v>
       </c>
@@ -1627,13 +1624,13 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="O15">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="P15">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="Q15">
         <v>0</v>
@@ -1672,7 +1669,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:28">
       <c r="A16">
         <v>0</v>
       </c>
@@ -1758,7 +1755,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:28">
       <c r="A17">
         <v>0</v>
       </c>
@@ -1844,7 +1841,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:28">
       <c r="A18">
         <v>0</v>
       </c>
@@ -1930,7 +1927,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:28">
       <c r="A19">
         <v>0</v>
       </c>
@@ -2016,7 +2013,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:28">
       <c r="A20">
         <v>0</v>
       </c>
@@ -2102,7 +2099,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:28">
       <c r="A21">
         <v>0</v>
       </c>
@@ -2188,7 +2185,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:28">
       <c r="A22">
         <v>0</v>
       </c>
@@ -2274,7 +2271,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:28">
       <c r="A23">
         <v>0</v>
       </c>
@@ -2360,7 +2357,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:28">
       <c r="A24">
         <v>0</v>
       </c>
@@ -2446,7 +2443,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:28">
       <c r="A25">
         <v>0</v>
       </c>
@@ -2532,7 +2529,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:28">
       <c r="A26">
         <v>0</v>
       </c>
@@ -2618,7 +2615,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:28">
       <c r="A27">
         <v>0</v>
       </c>
@@ -2704,7 +2701,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:28">
       <c r="A28">
         <v>0</v>
       </c>
@@ -2816,6 +2813,11 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>